--- a/exemples/cryptoMorphoBase.xlsx
+++ b/exemples/cryptoMorphoBase.xlsx
@@ -105,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,13 +134,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,7 +151,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
     <fill>
@@ -181,6 +176,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,64 +231,64 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -343,7 +344,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -473,10 +474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:D17"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -583,7 +584,7 @@
       </c>
       <c r="L2" s="6" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-009</v>
+        <v>1E-011</v>
       </c>
       <c r="M2" s="7" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
@@ -614,10 +615,10 @@
         <v>200000</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>1E-009</v>
+        <v>1E-011</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45962</v>
+        <v>45919</v>
       </c>
       <c r="D4" s="13"/>
       <c r="G4" s="10"/>
@@ -642,6 +643,9 @@
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
     </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoMorphoBase.xlsx
+++ b/exemples/cryptoMorphoBase.xlsx
@@ -135,7 +135,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,7 +151,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -176,12 +176,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -226,69 +220,61 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -344,7 +330,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -474,10 +460,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="A4:D4"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="A5:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,19 +558,19 @@
       </c>
       <c r="I2" s="5" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>200000</v>
+        <v>2.053</v>
       </c>
       <c r="J2" s="6" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>200000</v>
+        <v>2.053</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>240000</v>
+        <v>2.4636</v>
       </c>
       <c r="L2" s="6" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-011</v>
+        <v>10</v>
       </c>
       <c r="M2" s="7" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
@@ -612,10 +598,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
-        <v>200000</v>
+        <v>2.053</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>1E-011</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>45919</v>
@@ -627,25 +613,23 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoMorphoBase.xlsx
+++ b/exemples/cryptoMorphoBase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t xml:space="preserve">&lt; - initialiser la premiere ligne manuellent : ////valeur cours actuelle ou anticipée crypto/dollars //// 0,00000000001 //// date du jour //// heure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:35:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:35:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:35:57</t>
   </si>
 </sst>
 </file>
@@ -463,7 +478,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="A5:D20"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -480,7 +495,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.61"/>
@@ -558,23 +573,23 @@
       </c>
       <c r="I2" s="5" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>2.053</v>
+        <v>1.603</v>
       </c>
       <c r="J2" s="6" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>2.053</v>
+        <v>1.83680317460317</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>2.4636</v>
+        <v>2.20416380952381</v>
       </c>
       <c r="L2" s="6" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="M2" s="7" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N2" s="8" t="n">
         <v>18</v>
@@ -613,23 +628,82 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>45919</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A8" s="11" t="n">
+        <v>1.687</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.6694</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1.6462</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>1.603</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
